--- a/doc/Hospital.xlsx
+++ b/doc/Hospital.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xWX540623\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\workspace\Hospital\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -173,7 +173,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -579,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H102"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection sqref="A1:H101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -617,1017 +617,1567 @@
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>1</v>
+      </c>
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
       <c r="F3" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>11</v>
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>4</v>
+      </c>
       <c r="B6" s="1"/>
-      <c r="C6" s="3" t="s">
-        <v>17</v>
+      <c r="C6" s="4"/>
+      <c r="D6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
       </c>
       <c r="F6" s="1"/>
-      <c r="G6" s="3" t="s">
-        <v>17</v>
+      <c r="G6" s="4"/>
+      <c r="H6" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>5</v>
+      </c>
       <c r="B7" s="1"/>
-      <c r="C7" s="4"/>
+      <c r="C7" s="5"/>
       <c r="D7" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
       </c>
       <c r="F7" s="1"/>
-      <c r="G7" s="4"/>
+      <c r="G7" s="5"/>
       <c r="H7" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>6</v>
+      </c>
       <c r="B8" s="1"/>
       <c r="C8" s="5"/>
       <c r="D8" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="5"/>
       <c r="H8" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>7</v>
+      </c>
       <c r="B9" s="1"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="3" t="s">
-        <v>26</v>
+      <c r="C9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>7</v>
       </c>
       <c r="F9" s="1"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="3" t="s">
-        <v>26</v>
+      <c r="G9" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>8</v>
+      </c>
       <c r="B10" s="1"/>
-      <c r="C10" s="3" t="s">
-        <v>2</v>
+      <c r="C10" s="4"/>
+      <c r="D10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
       </c>
       <c r="F10" s="1"/>
-      <c r="G10" s="3" t="s">
-        <v>2</v>
+      <c r="G10" s="4"/>
+      <c r="H10" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>9</v>
+      </c>
       <c r="B11" s="1"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="3" t="s">
-        <v>20</v>
+      <c r="C11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>9</v>
       </c>
       <c r="F11" s="1"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="3" t="s">
-        <v>32</v>
+      <c r="G11" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>10</v>
+      </c>
       <c r="B12" s="1"/>
-      <c r="C12" s="3" t="s">
-        <v>3</v>
+      <c r="D12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
       </c>
       <c r="F12" s="1"/>
-      <c r="G12" s="3" t="s">
-        <v>18</v>
+      <c r="G12" s="4"/>
+      <c r="H12" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>11</v>
+      </c>
       <c r="B13" s="1"/>
       <c r="D13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>11</v>
       </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="4"/>
+      <c r="G13" s="5"/>
       <c r="H13" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>12</v>
+      </c>
       <c r="B14" s="1"/>
       <c r="D14" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="E14">
+        <v>12</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="5"/>
       <c r="H14" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B15" s="1"/>
-      <c r="D15" s="3" t="s">
-        <v>23</v>
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>13</v>
       </c>
       <c r="F15" s="1"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="3" t="s">
-        <v>29</v>
+      <c r="G15" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B16" s="3" t="s">
-        <v>4</v>
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16">
+        <v>14</v>
       </c>
       <c r="F16" s="1"/>
-      <c r="G16" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H16" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>15</v>
+      </c>
       <c r="B17" s="1"/>
-      <c r="C17" s="3" t="s">
-        <v>17</v>
+      <c r="C17" s="4"/>
+      <c r="D17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>15</v>
       </c>
       <c r="F17" s="1"/>
       <c r="H17" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>16</v>
+      </c>
       <c r="B18" s="1"/>
-      <c r="C18" s="4"/>
+      <c r="C18" s="5"/>
       <c r="D18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" s="1"/>
-      <c r="H18" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+      <c r="E18">
+        <v>16</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>17</v>
+      </c>
       <c r="B19" s="1"/>
       <c r="C19" s="5"/>
       <c r="D19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>17</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>18</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21">
+        <v>19</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B20" s="1"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B21" s="1"/>
-      <c r="C21" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>20</v>
+      </c>
       <c r="B22" s="1"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="3" t="s">
+      <c r="C22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22">
         <v>20</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="5"/>
       <c r="H22" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>21</v>
+      </c>
       <c r="B23" s="1"/>
-      <c r="C23" s="3" t="s">
-        <v>3</v>
+      <c r="D23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>21</v>
       </c>
       <c r="F23" s="1"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="G23" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>22</v>
+      </c>
       <c r="B24" s="1"/>
       <c r="D24" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>22</v>
       </c>
       <c r="F24" s="1"/>
-      <c r="G24" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="G24" s="4"/>
+      <c r="H24" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>23</v>
+      </c>
       <c r="B25" s="1"/>
       <c r="D25" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>23</v>
       </c>
       <c r="F25" s="1"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B26" s="1"/>
-      <c r="D26" s="3" t="s">
-        <v>23</v>
+      <c r="G25" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26">
+        <v>24</v>
       </c>
       <c r="F26" s="1"/>
-      <c r="G26" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B27" s="3" t="s">
-        <v>5</v>
+      <c r="G26" s="4"/>
+      <c r="H26" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27">
+        <v>25</v>
       </c>
       <c r="F27" s="1"/>
-      <c r="G27" s="4"/>
+      <c r="G27" s="5"/>
       <c r="H27" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.15">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>26</v>
+      </c>
       <c r="B28" s="1"/>
-      <c r="C28" s="3" t="s">
-        <v>17</v>
+      <c r="C28" s="4"/>
+      <c r="D28" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28">
+        <v>26</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="5"/>
       <c r="H28" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29">
+        <v>27</v>
+      </c>
+      <c r="F29" s="1"/>
+      <c r="G29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A30">
         <v>28</v>
       </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B29" s="1"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F29" s="1"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B30" s="1"/>
       <c r="C30" s="5"/>
       <c r="D30" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="E30">
+        <v>28</v>
       </c>
       <c r="F30" s="1"/>
-      <c r="G30" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H30" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>29</v>
+      </c>
       <c r="B31" s="1"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="3" t="s">
-        <v>26</v>
+      <c r="C31" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>29</v>
       </c>
       <c r="F31" s="1"/>
       <c r="H31" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B32" s="1"/>
-      <c r="C32" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F32" s="1"/>
-      <c r="H32" s="3" t="s">
+      <c r="C32" s="4"/>
+      <c r="D32" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>30</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A33">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B33" s="1"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33">
+        <v>31</v>
+      </c>
+      <c r="F33" s="1"/>
+      <c r="G33" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>32</v>
+      </c>
       <c r="B34" s="1"/>
-      <c r="C34" s="3" t="s">
-        <v>3</v>
+      <c r="D34" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34">
+        <v>32</v>
       </c>
       <c r="F34" s="1"/>
-      <c r="G34" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="G34" s="4"/>
+      <c r="H34" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>33</v>
+      </c>
       <c r="B35" s="1"/>
       <c r="D35" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="E35">
+        <v>33</v>
       </c>
       <c r="F35" s="1"/>
-      <c r="G35" s="4"/>
+      <c r="G35" s="5"/>
       <c r="H35" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>34</v>
+      </c>
       <c r="B36" s="1"/>
       <c r="D36" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="E36">
+        <v>34</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="5"/>
       <c r="H36" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37">
+        <v>35</v>
+      </c>
+      <c r="F37" s="1"/>
+      <c r="G37" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E38">
+        <v>36</v>
+      </c>
+      <c r="F38" s="1"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E39">
+        <v>37</v>
+      </c>
+      <c r="F39" s="1"/>
+      <c r="G39" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B37" s="1"/>
-      <c r="D37" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F37" s="1"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B38" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F38" s="1"/>
-      <c r="G38" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B39" s="1"/>
-      <c r="C39" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F39" s="1"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B40" s="1"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="3" t="s">
-        <v>24</v>
+      <c r="E40">
+        <v>38</v>
       </c>
       <c r="F40" s="1"/>
-      <c r="G40" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="G40" s="4"/>
+      <c r="H40" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>39</v>
+      </c>
       <c r="B41" s="1"/>
       <c r="C41" s="5"/>
       <c r="D41" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="E41">
+        <v>39</v>
       </c>
       <c r="F41" s="1"/>
-      <c r="G41" s="4"/>
+      <c r="G41" s="5"/>
       <c r="H41" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.15">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>40</v>
+      </c>
       <c r="B42" s="1"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="3" t="s">
-        <v>26</v>
+      <c r="C42" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E42">
+        <v>40</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="5"/>
       <c r="H42" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>41</v>
+      </c>
       <c r="B43" s="1"/>
-      <c r="C43" s="3" t="s">
-        <v>2</v>
+      <c r="C43" s="4"/>
+      <c r="D43" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43">
+        <v>41</v>
       </c>
       <c r="F43" s="1"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="G43" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>42</v>
+      </c>
       <c r="B44" s="1"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="3" t="s">
-        <v>20</v>
+      <c r="C44" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E44">
+        <v>42</v>
       </c>
       <c r="F44" s="1"/>
-      <c r="G44" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H44" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>43</v>
+      </c>
       <c r="B45" s="1"/>
-      <c r="C45" s="3" t="s">
-        <v>19</v>
+      <c r="D45" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E45">
+        <v>43</v>
       </c>
       <c r="F45" s="1"/>
       <c r="H45" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>44</v>
+      </c>
       <c r="B46" s="1"/>
       <c r="D46" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F46" s="1"/>
-      <c r="H46" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.15">
+        <v>22</v>
+      </c>
+      <c r="E46">
+        <v>44</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>45</v>
+      </c>
       <c r="B47" s="1"/>
       <c r="D47" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F47" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E47">
+        <v>45</v>
+      </c>
+      <c r="F47" s="1"/>
+      <c r="G47" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B48" s="1"/>
-      <c r="D48" s="3" t="s">
-        <v>23</v>
+      <c r="E48">
+        <v>46</v>
       </c>
       <c r="F48" s="1"/>
-      <c r="G48" s="3" t="s">
+      <c r="G48" s="4"/>
+      <c r="H48" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B49" s="3" t="s">
-        <v>6</v>
+      <c r="E49">
+        <v>47</v>
       </c>
       <c r="F49" s="1"/>
-      <c r="G49" s="4"/>
+      <c r="G49" s="5"/>
       <c r="H49" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50" s="1"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B50" s="1"/>
-      <c r="C50" s="3" t="s">
-        <v>17</v>
+      <c r="E50">
+        <v>48</v>
       </c>
       <c r="F50" s="1"/>
       <c r="G50" s="5"/>
       <c r="H50" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B51" s="1"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="3" t="s">
-        <v>24</v>
+      <c r="E51">
+        <v>49</v>
       </c>
       <c r="F51" s="1"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="G51" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <v>50</v>
+      </c>
       <c r="B52" s="1"/>
       <c r="C52" s="5"/>
       <c r="D52" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="E52">
+        <v>50</v>
       </c>
       <c r="F52" s="1"/>
-      <c r="G52" s="3" t="s">
+      <c r="G52" s="4"/>
+      <c r="H52" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53" s="1"/>
+      <c r="C53" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B53" s="1"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="3" t="s">
-        <v>26</v>
+      <c r="E53">
+        <v>51</v>
       </c>
       <c r="F53" s="1"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="G53" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <v>52</v>
+      </c>
       <c r="B54" s="1"/>
-      <c r="C54" s="3" t="s">
-        <v>2</v>
+      <c r="C54" s="4"/>
+      <c r="D54" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E54">
+        <v>52</v>
       </c>
       <c r="F54" s="1"/>
-      <c r="G54" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="G54" s="4"/>
+      <c r="H54" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A55">
+        <v>53</v>
+      </c>
       <c r="B55" s="1"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="3" t="s">
-        <v>20</v>
+      <c r="C55" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E55">
+        <v>53</v>
       </c>
       <c r="F55" s="1"/>
-      <c r="G55" s="4"/>
+      <c r="G55" s="5"/>
       <c r="H55" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.15">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A56">
+        <v>54</v>
+      </c>
       <c r="B56" s="1"/>
-      <c r="C56" s="3" t="s">
-        <v>19</v>
+      <c r="D56" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E56">
+        <v>54</v>
       </c>
       <c r="F56" s="1"/>
       <c r="G56" s="5"/>
       <c r="H56" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A57">
+        <v>55</v>
+      </c>
       <c r="B57" s="1"/>
       <c r="D57" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="E57">
+        <v>55</v>
       </c>
       <c r="F57" s="1"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="G57" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A58">
+        <v>56</v>
+      </c>
       <c r="B58" s="1"/>
       <c r="D58" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="E58">
+        <v>56</v>
       </c>
       <c r="F58" s="1"/>
-      <c r="G58" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B59" s="1"/>
-      <c r="D59" s="3" t="s">
-        <v>23</v>
+      <c r="H58" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59">
+        <v>57</v>
       </c>
       <c r="F59" s="1"/>
       <c r="H59" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B60" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F60" s="1"/>
-      <c r="H60" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60" s="1"/>
+      <c r="C60" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E60">
+        <v>58</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A61">
+        <v>59</v>
+      </c>
       <c r="B61" s="1"/>
-      <c r="C61" s="3" t="s">
+      <c r="C61" s="4"/>
+      <c r="D61" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E61">
+        <v>59</v>
+      </c>
+      <c r="F61" s="1"/>
+      <c r="G61" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F61" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A62">
+        <v>60</v>
+      </c>
       <c r="B62" s="1"/>
-      <c r="C62" s="4"/>
+      <c r="C62" s="5"/>
       <c r="D62" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E62">
+        <v>60</v>
+      </c>
+      <c r="F62" s="1"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F62" s="1"/>
-      <c r="G62" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A63">
+        <v>61</v>
+      </c>
       <c r="B63" s="1"/>
       <c r="C63" s="5"/>
       <c r="D63" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E63">
+        <v>61</v>
+      </c>
+      <c r="F63" s="1"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F63" s="1"/>
-      <c r="G63" s="4"/>
-      <c r="H63" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A64">
+        <v>62</v>
+      </c>
       <c r="B64" s="1"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="3" t="s">
-        <v>26</v>
+      <c r="C64" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E64">
+        <v>62</v>
       </c>
       <c r="F64" s="1"/>
       <c r="G64" s="5"/>
       <c r="H64" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.15">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A65">
+        <v>63</v>
+      </c>
       <c r="B65" s="1"/>
-      <c r="C65" s="3" t="s">
+      <c r="C65" s="4"/>
+      <c r="D65" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E65">
+        <v>63</v>
+      </c>
+      <c r="F65" s="1"/>
+      <c r="G65" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F65" s="1"/>
-      <c r="G65" s="5"/>
-      <c r="H65" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A66">
+        <v>64</v>
+      </c>
       <c r="B66" s="1"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="3" t="s">
-        <v>20</v>
+      <c r="C66" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E66">
+        <v>64</v>
       </c>
       <c r="F66" s="1"/>
-      <c r="G66" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="G66" s="4"/>
+      <c r="H66" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A67">
+        <v>65</v>
+      </c>
       <c r="B67" s="1"/>
-      <c r="C67" s="3" t="s">
-        <v>19</v>
+      <c r="D67" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E67">
+        <v>65</v>
       </c>
       <c r="F67" s="1"/>
-      <c r="G67" s="4"/>
-      <c r="H67" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="G67" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A68">
+        <v>66</v>
+      </c>
       <c r="B68" s="1"/>
       <c r="D68" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="E68">
+        <v>66</v>
       </c>
       <c r="F68" s="1"/>
-      <c r="G68" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="G68" s="4"/>
+      <c r="H68" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A69">
+        <v>67</v>
+      </c>
       <c r="B69" s="1"/>
       <c r="D69" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="E69">
+        <v>67</v>
       </c>
       <c r="F69" s="1"/>
-      <c r="G69" s="4"/>
+      <c r="G69" s="5"/>
       <c r="H69" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B70" s="1"/>
-      <c r="D70" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E70">
+        <v>68</v>
       </c>
       <c r="F70" s="1"/>
       <c r="G70" s="5"/>
       <c r="H70" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B71" s="3" t="s">
-        <v>8</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71" s="1"/>
+      <c r="C71" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E71">
+        <v>69</v>
       </c>
       <c r="F71" s="1"/>
-      <c r="G71" s="5"/>
-      <c r="H71" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="G71" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A72">
+        <v>70</v>
+      </c>
       <c r="B72" s="1"/>
-      <c r="C72" s="3" t="s">
-        <v>17</v>
+      <c r="C72" s="4"/>
+      <c r="D72" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E72">
+        <v>70</v>
       </c>
       <c r="F72" s="1"/>
-      <c r="G72" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H72" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A73">
+        <v>71</v>
+      </c>
       <c r="B73" s="1"/>
-      <c r="C73" s="4"/>
+      <c r="C73" s="5"/>
       <c r="D73" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="E73">
+        <v>71</v>
       </c>
       <c r="F73" s="1"/>
       <c r="H73" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A74">
+        <v>72</v>
+      </c>
       <c r="B74" s="1"/>
       <c r="C74" s="5"/>
       <c r="D74" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E74">
+        <v>72</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75" s="1"/>
+      <c r="C75" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E75">
+        <v>73</v>
+      </c>
+      <c r="F75" s="1"/>
+      <c r="G75" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76" s="1"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E76">
+        <v>74</v>
+      </c>
+      <c r="F76" s="1"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77" s="1"/>
+      <c r="C77" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E77">
+        <v>75</v>
+      </c>
+      <c r="F77" s="1"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F74" s="1"/>
-      <c r="H74" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B75" s="1"/>
-      <c r="C75" s="5"/>
-      <c r="D75" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B76" s="1"/>
-      <c r="C76" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F76" s="1"/>
-      <c r="G76" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B77" s="1"/>
-      <c r="C77" s="4"/>
-      <c r="D77" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F77" s="1"/>
-      <c r="G77" s="4"/>
-      <c r="H77" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A78">
+        <v>76</v>
+      </c>
       <c r="B78" s="1"/>
-      <c r="C78" s="3" t="s">
-        <v>19</v>
+      <c r="D78" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E78">
+        <v>76</v>
       </c>
       <c r="F78" s="1"/>
       <c r="G78" s="5"/>
       <c r="H78" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.15">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A79">
+        <v>77</v>
+      </c>
       <c r="B79" s="1"/>
       <c r="D79" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="E79">
+        <v>77</v>
       </c>
       <c r="F79" s="1"/>
-      <c r="G79" s="5"/>
-      <c r="H79" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="G79" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A80">
+        <v>78</v>
+      </c>
       <c r="B80" s="1"/>
       <c r="D80" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="E80">
+        <v>78</v>
       </c>
       <c r="F80" s="1"/>
-      <c r="G80" s="3" t="s">
-        <v>2</v>
+      <c r="G80" s="4"/>
+      <c r="H80" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B81" s="1"/>
-      <c r="D81" s="3" t="s">
-        <v>23</v>
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E81">
+        <v>79</v>
       </c>
       <c r="F81" s="1"/>
-      <c r="G81" s="4"/>
-      <c r="H81" s="3" t="s">
-        <v>32</v>
+      <c r="G81" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B82" s="3" t="s">
-        <v>9</v>
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E82">
+        <v>80</v>
       </c>
       <c r="F82" s="1"/>
-      <c r="G82" s="3" t="s">
-        <v>18</v>
+      <c r="G82" s="4"/>
+      <c r="H82" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A83" s="2"/>
+      <c r="A83">
+        <v>81</v>
+      </c>
       <c r="B83" s="2"/>
-      <c r="C83" s="3" t="s">
-        <v>17</v>
+      <c r="C83" s="4"/>
+      <c r="D83" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E83">
+        <v>81</v>
       </c>
       <c r="F83" s="1"/>
-      <c r="G83" s="4"/>
+      <c r="G83" s="5"/>
       <c r="H83" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A84" s="2"/>
+      <c r="A84">
+        <v>82</v>
+      </c>
       <c r="B84" s="2"/>
-      <c r="C84" s="4"/>
+      <c r="C84" s="5"/>
       <c r="D84" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="E84">
+        <v>82</v>
       </c>
       <c r="F84" s="1"/>
       <c r="G84" s="5"/>
       <c r="H84" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A85" s="2"/>
+      <c r="A85">
+        <v>83</v>
+      </c>
       <c r="B85" s="2"/>
       <c r="C85" s="5"/>
       <c r="D85" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="E85">
+        <v>83</v>
       </c>
       <c r="F85" s="1"/>
-      <c r="G85" s="5"/>
-      <c r="H85" s="3" t="s">
-        <v>29</v>
+      <c r="G85" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A86" s="2"/>
+      <c r="A86">
+        <v>84</v>
+      </c>
       <c r="B86" s="2"/>
-      <c r="C86" s="5"/>
-      <c r="D86" s="3" t="s">
-        <v>26</v>
+      <c r="C86" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E86">
+        <v>84</v>
       </c>
       <c r="F86" s="1"/>
-      <c r="G86" s="3" t="s">
-        <v>10</v>
+      <c r="H86" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A87" s="2"/>
+      <c r="A87">
+        <v>85</v>
+      </c>
       <c r="B87" s="2"/>
-      <c r="C87" s="3" t="s">
-        <v>2</v>
+      <c r="C87" s="4"/>
+      <c r="D87" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E87">
+        <v>85</v>
       </c>
       <c r="F87" s="1"/>
       <c r="H87" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A88" s="2"/>
+      <c r="A88">
+        <v>86</v>
+      </c>
       <c r="B88" s="2"/>
-      <c r="C88" s="4"/>
-      <c r="D88" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F88" s="1"/>
-      <c r="H88" s="3" t="s">
-        <v>31</v>
+      <c r="C88" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E88">
+        <v>86</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A89" s="2"/>
+      <c r="A89">
+        <v>87</v>
+      </c>
       <c r="B89" s="2"/>
-      <c r="C89" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>16</v>
+      <c r="D89" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E89">
+        <v>87</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A90" s="2"/>
+      <c r="A90">
+        <v>88</v>
+      </c>
       <c r="B90" s="2"/>
       <c r="D90" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G90" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
+      </c>
+      <c r="E90">
+        <v>88</v>
+      </c>
+      <c r="G90" s="4"/>
+      <c r="H90" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A91" s="2"/>
+      <c r="A91">
+        <v>89</v>
+      </c>
       <c r="B91" s="2"/>
       <c r="D91" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G91" s="4"/>
+        <v>23</v>
+      </c>
+      <c r="E91">
+        <v>89</v>
+      </c>
+      <c r="G91" s="5"/>
       <c r="H91" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A92" s="2"/>
-      <c r="B92" s="2"/>
-      <c r="D92" s="3" t="s">
-        <v>23</v>
+      <c r="E92">
+        <v>90</v>
       </c>
       <c r="G92" s="5"/>
       <c r="H92" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="G93" s="5"/>
-      <c r="H93" s="3" t="s">
-        <v>26</v>
+      <c r="E93">
+        <v>91</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="G94" s="3" t="s">
-        <v>2</v>
+      <c r="E94">
+        <v>92</v>
+      </c>
+      <c r="G94" s="4"/>
+      <c r="H94" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="G95" s="4"/>
-      <c r="H95" s="3" t="s">
-        <v>32</v>
+      <c r="E95">
+        <v>93</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="G96" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="97" spans="7:8" x14ac:dyDescent="0.15">
-      <c r="G97" s="4"/>
+      <c r="E96">
+        <v>94</v>
+      </c>
+      <c r="G96" s="4"/>
+      <c r="H96" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="97" spans="5:8" x14ac:dyDescent="0.15">
+      <c r="E97">
+        <v>95</v>
+      </c>
+      <c r="G97" s="5"/>
       <c r="H97" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="98" spans="7:8" x14ac:dyDescent="0.15">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="98" spans="5:8" x14ac:dyDescent="0.15">
+      <c r="E98">
+        <v>96</v>
+      </c>
       <c r="G98" s="5"/>
       <c r="H98" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="99" spans="7:8" x14ac:dyDescent="0.15">
-      <c r="G99" s="5"/>
-      <c r="H99" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="100" spans="7:8" x14ac:dyDescent="0.15">
-      <c r="G100" s="3" t="s">
+    <row r="99" spans="5:8" x14ac:dyDescent="0.15">
+      <c r="E99">
+        <v>97</v>
+      </c>
+      <c r="G99" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="100" spans="5:8" x14ac:dyDescent="0.15">
+      <c r="E100">
+        <v>98</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="101" spans="5:8" x14ac:dyDescent="0.15">
+      <c r="E101">
+        <v>99</v>
+      </c>
       <c r="H101" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="102" spans="7:8" x14ac:dyDescent="0.15">
-      <c r="H102" s="3" t="s">
         <v>31</v>
       </c>
     </row>
